--- a/直播源汇总文档/IPV6直播源汇总/黑龙江移动-域名版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/黑龙江移动-域名版.xlsx
@@ -1129,12 +1129,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鸡西公共</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鸡西新闻综合</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡西安全生活</t>
   </si>
 </sst>
 </file>
@@ -3821,7 +3820,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s">
         <v>208</v>
@@ -3835,7 +3834,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s">
         <v>208</v>

--- a/直播源汇总文档/IPV6直播源汇总/黑龙江移动-域名版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/黑龙江移动-域名版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="363">
   <si>
     <t>频道</t>
   </si>
@@ -866,10 +866,6 @@
   </si>
   <si>
     <t>咪咕视频</t>
-  </si>
-  <si>
-    <t>睛彩青少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>,</t>
@@ -3232,7 +3228,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
         <v>208</v>
@@ -3241,12 +3237,12 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
         <v>208</v>
@@ -3255,12 +3251,12 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
         <v>208</v>
@@ -3269,12 +3265,12 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
         <v>208</v>
@@ -3283,12 +3279,12 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
         <v>208</v>
@@ -3297,12 +3293,12 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
         <v>208</v>
@@ -3311,12 +3307,12 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
         <v>208</v>
@@ -3325,12 +3321,12 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
         <v>208</v>
@@ -3339,12 +3335,12 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
         <v>208</v>
@@ -3353,12 +3349,12 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
         <v>208</v>
@@ -3367,12 +3363,12 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
         <v>208</v>
@@ -3381,12 +3377,12 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
         <v>208</v>
@@ -3395,12 +3391,12 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
         <v>208</v>
@@ -3409,12 +3405,12 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
         <v>208</v>
@@ -3423,12 +3419,12 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
         <v>208</v>
@@ -3437,12 +3433,12 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B17" t="s">
         <v>208</v>
@@ -3451,12 +3447,12 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B18" t="s">
         <v>208</v>
@@ -3465,12 +3461,12 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
         <v>208</v>
@@ -3479,12 +3475,12 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B20" t="s">
         <v>208</v>
@@ -3493,12 +3489,12 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B21" t="s">
         <v>208</v>
@@ -3507,12 +3503,12 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B22" t="s">
         <v>208</v>
@@ -3521,12 +3517,12 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
         <v>208</v>
@@ -3535,12 +3531,12 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B24" t="s">
         <v>208</v>
@@ -3549,12 +3545,12 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B25" t="s">
         <v>208</v>
@@ -3563,12 +3559,12 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B26" t="s">
         <v>208</v>
@@ -3577,12 +3573,12 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B27" t="s">
         <v>208</v>
@@ -3591,12 +3587,12 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B28" t="s">
         <v>208</v>
@@ -3605,12 +3601,12 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
         <v>208</v>
@@ -3619,12 +3615,12 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s">
         <v>208</v>
@@ -3633,12 +3629,12 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
         <v>208</v>
@@ -3647,12 +3643,12 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s">
         <v>208</v>
@@ -3661,12 +3657,12 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s">
         <v>208</v>
@@ -3675,12 +3671,12 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s">
         <v>208</v>
@@ -3689,12 +3685,12 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B35" t="s">
         <v>208</v>
@@ -3703,12 +3699,12 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B36" t="s">
         <v>208</v>
@@ -3717,12 +3713,12 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s">
         <v>208</v>
@@ -3731,12 +3727,12 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s">
         <v>208</v>
@@ -3745,12 +3741,12 @@
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s">
         <v>208</v>
@@ -3759,12 +3755,12 @@
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s">
         <v>208</v>
@@ -3773,12 +3769,12 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s">
         <v>208</v>
@@ -3787,12 +3783,12 @@
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s">
         <v>208</v>
@@ -3801,12 +3797,12 @@
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s">
         <v>208</v>
@@ -3815,12 +3811,12 @@
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s">
         <v>208</v>
@@ -3829,12 +3825,12 @@
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s">
         <v>208</v>
@@ -3843,7 +3839,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +3993,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4005,27 +4001,27 @@
         <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" t="s">
         <v>278</v>
       </c>
-      <c r="B4" t="s">
-        <v>279</v>
-      </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -4033,13 +4029,13 @@
         <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -4053,7 +4049,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/直播源汇总文档/IPV6直播源汇总/黑龙江移动-域名版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/黑龙江移动-域名版.xlsx
@@ -356,9 +356,6 @@
     <t>宁夏卫视标清</t>
   </si>
   <si>
-    <t>青海安多卫视标清</t>
-  </si>
-  <si>
     <t>青海卫视标清</t>
   </si>
   <si>
@@ -381,9 +378,6 @@
   </si>
   <si>
     <t>深圳卫视标清</t>
-  </si>
-  <si>
-    <t>四川康巴卫视标清</t>
   </si>
   <si>
     <t>四川卫视</t>
@@ -1130,6 +1124,12 @@
   </si>
   <si>
     <t>鸡西安全生活</t>
+  </si>
+  <si>
+    <t>安多卫视标清</t>
+  </si>
+  <si>
+    <t>康巴卫视标清</t>
   </si>
 </sst>
 </file>
@@ -2031,9 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2059,44 +2057,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2104,55 +2102,55 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2160,41 +2158,41 @@
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -2202,41 +2200,41 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -2244,41 +2242,41 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -2286,97 +2284,97 @@
         <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -2384,41 +2382,41 @@
         <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -2426,41 +2424,41 @@
         <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -2468,55 +2466,55 @@
         <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -2524,41 +2522,41 @@
         <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -2566,69 +2564,69 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C40" t="s">
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -2636,563 +2634,567 @@
         <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
         <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C48" t="s">
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C51" t="s">
         <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
         <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C53" t="s">
         <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C54" t="s">
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
         <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C57" t="s">
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C58" t="s">
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C59" t="s">
         <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C61" t="s">
         <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C62" t="s">
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C63" t="s">
         <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C64" t="s">
         <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C65" t="s">
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C66" t="s">
         <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C67" t="s">
         <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
         <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C69" t="s">
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s">
         <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
         <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
         <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C74" t="s">
         <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C75" t="s">
         <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s">
         <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s">
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C78" t="s">
         <v>31</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C79" t="s">
         <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C80" t="s">
         <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
         <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C82" t="s">
         <v>31</v>
       </c>
       <c r="D82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D82">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3228,618 +3230,618 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C40" t="s">
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3874,77 +3876,77 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3979,77 +3981,77 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>278</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" t="s">
         <v>276</v>
       </c>
-      <c r="B5" t="s">
-        <v>278</v>
-      </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4084,385 +4086,385 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/直播源汇总文档/IPV6直播源汇总/黑龙江移动-域名版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/黑龙江移动-域名版.xlsx
@@ -688,87 +688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NewTV爱情喜剧</t>
-  </si>
-  <si>
-    <t>NewTV超级电视剧</t>
-  </si>
-  <si>
-    <t>NewTV超级电影</t>
-  </si>
-  <si>
-    <t>NewTV超级体育</t>
-  </si>
-  <si>
-    <t>NewTV超级综艺</t>
-  </si>
-  <si>
-    <t>NewTV潮妈辣婆</t>
-  </si>
-  <si>
-    <t>NewTV哒啵赛事</t>
-  </si>
-  <si>
-    <t>NewTV东北热剧</t>
-  </si>
-  <si>
-    <t>NewTV古装剧场</t>
-  </si>
-  <si>
-    <t>NewTV海外剧场</t>
-  </si>
-  <si>
-    <t>NewTV黑莓电影</t>
-  </si>
-  <si>
-    <t>NewTV黑莓动画</t>
-  </si>
-  <si>
-    <t>NewTV欢乐剧场</t>
-  </si>
-  <si>
-    <t>NewTV家庭剧场</t>
-  </si>
-  <si>
-    <t>NewTV金牌综艺</t>
-  </si>
-  <si>
-    <t>NewTV惊悚悬疑</t>
-  </si>
-  <si>
-    <t>NewTV精品大剧</t>
-  </si>
-  <si>
-    <t>NewTV精品纪录</t>
-  </si>
-  <si>
-    <t>NewTV精品萌宠</t>
-  </si>
-  <si>
-    <t>NewTV精品体育</t>
-  </si>
-  <si>
-    <t>NewTV军旅剧场</t>
-  </si>
-  <si>
-    <t>NewTV军事评论</t>
-  </si>
-  <si>
-    <t>NewTV明星大片</t>
-  </si>
-  <si>
-    <t>NewTV农业致富</t>
-  </si>
-  <si>
-    <t>NewTV武搏世界</t>
-  </si>
-  <si>
-    <t>NewTV炫舞未来</t>
-  </si>
-  <si>
-    <t>NewTV怡伴健康</t>
-  </si>
-  <si>
     <t>id=3221225669</t>
   </si>
   <si>
@@ -1130,6 +1049,87 @@
   </si>
   <si>
     <t>康巴卫视标清</t>
+  </si>
+  <si>
+    <t>NEWTV爱情喜剧</t>
+  </si>
+  <si>
+    <t>NEWTV超级电视剧</t>
+  </si>
+  <si>
+    <t>NEWTV超级电影</t>
+  </si>
+  <si>
+    <t>NEWTV超级体育</t>
+  </si>
+  <si>
+    <t>NEWTV超级综艺</t>
+  </si>
+  <si>
+    <t>NEWTV潮妈辣婆</t>
+  </si>
+  <si>
+    <t>NEWTV哒啵赛事</t>
+  </si>
+  <si>
+    <t>NEWTV东北热剧</t>
+  </si>
+  <si>
+    <t>NEWTV古装剧场</t>
+  </si>
+  <si>
+    <t>NEWTV海外剧场</t>
+  </si>
+  <si>
+    <t>NEWTV黑莓电影</t>
+  </si>
+  <si>
+    <t>NEWTV黑莓动画</t>
+  </si>
+  <si>
+    <t>NEWTV欢乐剧场</t>
+  </si>
+  <si>
+    <t>NEWTV家庭剧场</t>
+  </si>
+  <si>
+    <t>NEWTV金牌综艺</t>
+  </si>
+  <si>
+    <t>NEWTV惊悚悬疑</t>
+  </si>
+  <si>
+    <t>NEWTV精品大剧</t>
+  </si>
+  <si>
+    <t>NEWTV精品纪录</t>
+  </si>
+  <si>
+    <t>NEWTV精品萌宠</t>
+  </si>
+  <si>
+    <t>NEWTV精品体育</t>
+  </si>
+  <si>
+    <t>NEWTV军旅剧场</t>
+  </si>
+  <si>
+    <t>NEWTV军事评论</t>
+  </si>
+  <si>
+    <t>NEWTV明星大片</t>
+  </si>
+  <si>
+    <t>NEWTV农业致富</t>
+  </si>
+  <si>
+    <t>NEWTV武搏世界</t>
+  </si>
+  <si>
+    <t>NEWTV炫舞未来</t>
+  </si>
+  <si>
+    <t>NEWTV怡伴健康</t>
   </si>
 </sst>
 </file>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
         <v>206</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s">
         <v>206</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
         <v>206</v>
@@ -3239,26 +3239,26 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>282</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
         <v>206</v>
@@ -3267,12 +3267,12 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
         <v>206</v>
@@ -3281,12 +3281,12 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>206</v>
@@ -3295,12 +3295,12 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
         <v>206</v>
@@ -3309,12 +3309,12 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
         <v>206</v>
@@ -3323,12 +3323,12 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
         <v>206</v>
@@ -3337,12 +3337,12 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
         <v>206</v>
@@ -3351,12 +3351,12 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
         <v>206</v>
@@ -3365,12 +3365,12 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
         <v>206</v>
@@ -3379,12 +3379,12 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
         <v>206</v>
@@ -3393,12 +3393,12 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B14" t="s">
         <v>206</v>
@@ -3407,12 +3407,12 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
         <v>206</v>
@@ -3421,12 +3421,12 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
         <v>206</v>
@@ -3435,12 +3435,12 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
         <v>206</v>
@@ -3449,12 +3449,12 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
         <v>206</v>
@@ -3463,12 +3463,12 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
         <v>206</v>
@@ -3477,12 +3477,12 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
         <v>206</v>
@@ -3491,12 +3491,12 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
         <v>206</v>
@@ -3505,12 +3505,12 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s">
         <v>206</v>
@@ -3519,12 +3519,12 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s">
         <v>206</v>
@@ -3533,12 +3533,12 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s">
         <v>206</v>
@@ -3547,12 +3547,12 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="B25" t="s">
         <v>206</v>
@@ -3561,12 +3561,12 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="B26" t="s">
         <v>206</v>
@@ -3575,12 +3575,12 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="B27" t="s">
         <v>206</v>
@@ -3589,12 +3589,12 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="B28" t="s">
         <v>206</v>
@@ -3603,12 +3603,12 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s">
         <v>206</v>
@@ -3617,12 +3617,12 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s">
         <v>206</v>
@@ -3631,12 +3631,12 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s">
         <v>206</v>
@@ -3645,12 +3645,12 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s">
         <v>206</v>
@@ -3659,12 +3659,12 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s">
         <v>206</v>
@@ -3673,12 +3673,12 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s">
         <v>206</v>
@@ -3687,12 +3687,12 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s">
         <v>206</v>
@@ -3701,12 +3701,12 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s">
         <v>206</v>
@@ -3715,12 +3715,12 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s">
         <v>206</v>
@@ -3729,12 +3729,12 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s">
         <v>206</v>
@@ -3743,12 +3743,12 @@
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B39" t="s">
         <v>206</v>
@@ -3757,12 +3757,12 @@
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s">
         <v>206</v>
@@ -3771,12 +3771,12 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s">
         <v>206</v>
@@ -3785,12 +3785,12 @@
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s">
         <v>206</v>
@@ -3799,12 +3799,12 @@
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s">
         <v>206</v>
@@ -3813,12 +3813,12 @@
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s">
         <v>206</v>
@@ -3827,12 +3827,12 @@
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s">
         <v>206</v>
@@ -3841,7 +3841,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
         <v>206</v>
@@ -3995,54 +3995,54 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
         <v>206</v>
@@ -4051,7 +4051,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4091,380 +4091,380 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>218</v>
-      </c>
-      <c r="B2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>221</v>
-      </c>
-      <c r="B5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>223</v>
-      </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>224</v>
-      </c>
-      <c r="B8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>225</v>
-      </c>
-      <c r="B9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>226</v>
-      </c>
-      <c r="B10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>227</v>
-      </c>
-      <c r="B11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
         <v>228</v>
-      </c>
-      <c r="B12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
         <v>229</v>
-      </c>
-      <c r="B13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>230</v>
-      </c>
-      <c r="B14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
         <v>231</v>
-      </c>
-      <c r="B15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>232</v>
-      </c>
-      <c r="B16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>233</v>
-      </c>
-      <c r="B17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
         <v>234</v>
-      </c>
-      <c r="B18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
         <v>235</v>
-      </c>
-      <c r="B19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
         <v>236</v>
-      </c>
-      <c r="B20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
         <v>237</v>
-      </c>
-      <c r="B21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
         <v>238</v>
-      </c>
-      <c r="B22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
         <v>239</v>
-      </c>
-      <c r="B23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
         <v>240</v>
-      </c>
-      <c r="B24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
         <v>241</v>
-      </c>
-      <c r="B25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
         <v>242</v>
-      </c>
-      <c r="B26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>361</v>
+      </c>
+      <c r="B27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
         <v>243</v>
-      </c>
-      <c r="B27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>362</v>
+      </c>
+      <c r="B28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
         <v>244</v>
-      </c>
-      <c r="B28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/直播源汇总文档/IPV6直播源汇总/黑龙江移动-域名版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/黑龙江移动-域名版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="央视" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="365">
   <si>
     <t>频道</t>
   </si>
@@ -1130,6 +1130,14 @@
   </si>
   <si>
     <t>NEWTV怡伴健康</t>
+  </si>
+  <si>
+    <t>id=3221226508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睛彩青少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3958,7 +3966,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4028,29 +4036,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>248</v>
       </c>
-      <c r="B6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>254</v>
       </c>
     </row>
